--- a/OneDrive - NEORIS/Área de Trabalho/Cenarios-de-tests/ValidarCompraFlight/Default.xlsx
+++ b/OneDrive - NEORIS/Área de Trabalho/Cenarios-de-tests/ValidarCompraFlight/Default.xlsx
@@ -14,6 +14,23 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>ORDER DETAILS</t>
+  </si>
+  <si>
+    <t>John Smith_name_out</t>
+  </si>
+  <si>
+    <t>ORDER DETAILS_name_out</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
@@ -154,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -162,15 +179,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,10 +253,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="283845"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -467,16 +537,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.41796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" s="4" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
